--- a/charactertables.xlsx
+++ b/charactertables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F39878-2AB1-4E16-8235-D676426B6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C4BD5-C244-42EF-8755-40C8EC623B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8124" yWindow="4200" windowWidth="17280" windowHeight="9420" xr2:uid="{3AA36B28-F7CA-48D6-8E25-81EB9E68E055}"/>
+    <workbookView xWindow="-120" yWindow="756" windowWidth="11952" windowHeight="9420" firstSheet="3" activeTab="10" xr2:uid="{3AA36B28-F7CA-48D6-8E25-81EB9E68E055}"/>
   </bookViews>
   <sheets>
     <sheet name="Di" sheetId="2" r:id="rId1"/>
@@ -2754,7 +2754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2888,9 +2888,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3208,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4BA98-F3EC-4B6F-8D29-356A4299EC6C}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3571,7 +3568,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -3743,7 +3740,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3936,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD929F9A-18DD-46EE-AF5F-CBE18D60EF2C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,7 +4420,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4671,7 +4668,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4811,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -4828,7 +4825,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4993,8 +4990,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(B7:C7)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -5309,7 +5305,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5739,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>6</v>
